--- a/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>761,58%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>491,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>86,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>430,38%</t>
         </is>
       </c>
     </row>
@@ -668,22 +720,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,79</t>
+          <t>1,1; 10,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,13</t>
+          <t>-1,35; 4,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,06</t>
+          <t>-3,16; 3,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 32,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +745,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 418,23</t>
+          <t>3,33; 14,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-56,71; 364,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 241,37</t>
+          <t>-57,61; 572,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-65,82; 291,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 2370,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,98%</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>114,14%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>145,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>128,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,97</t>
+          <t>-1,05; 4,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,21</t>
+          <t>0,94; 5,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,33</t>
+          <t>1,22; 7,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 18,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 342,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 260,88</t>
+          <t>-1,35; 6,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,39; 285,08</t>
+          <t>-39,39; 362,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 216,87</t>
+          <t>21,57; 444,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19,83; 334,89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,33; 170,22</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,82</t>
+          <t>-4,6; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,41</t>
+          <t>-1,87; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,18</t>
+          <t>-3,05; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 13,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 120,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,1; 122,36</t>
+          <t>-3,2; 5,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,2; 100,59</t>
+          <t>-65,45; 132,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 231,87</t>
+          <t>-45,42; 177,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-43,98; 98,63</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-42,05; 124,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>112,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>-16,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>110,32%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,34</t>
+          <t>0,11; 4,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,48</t>
+          <t>-3,4; 1,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 16,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 182,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 120,76</t>
+          <t>0,78; 9,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 121,69</t>
+          <t>0,52; 419,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 132,33</t>
+          <t>-74,41; 117,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 360,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>75,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>54,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>80,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 3,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 2,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 3,68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 6,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 176,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 129,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 128,08</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,4; 160,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>491,19%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,18%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>22,54%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>430,38%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.842676982611751</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.534031624276496</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7679880247095597</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>8.74990586376272</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>6.179486395562143</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9334348180966882</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3332920680703251</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>4.01640061632536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 10,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 4,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 3,14</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 14,95</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-57,61; 572,99</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-65,82; 291,01</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>26,1; 2370,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.600091706915678</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.174490161710113</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.300635200330255</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>3.239945281892958</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.5687901507600347</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5970447126466667</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.2309627541577072</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.91512947294522</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.233398935401311</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.170482968880936</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>14.94140715689981</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>6.055695044489843</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.279320074264897</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>23.42031197248876</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>63,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>145,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>128,3%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>45,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 4,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 5,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 7,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 6,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-39,39; 362,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>21,57; 444,67</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>19,83; 334,89</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; 170,22</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.56493776349672</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.952330769267717</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.789048748775663</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>2.357337555619555</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6965958205849573</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.187938958921392</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.288189610055432</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.4283540331102899</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-4,86%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,81%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,91%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>24,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.9633565634453806</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4692437521359415</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.24046401024303</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-1.428820753065246</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4047025696072501</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.09006066226496817</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1915881067849723</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.216338289713694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 2,99</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 3,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 3,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 5,29</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-65,45; 132,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-45,42; 177,99</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-43,98; 98,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-42,05; 124,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.60739599856432</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.645488133613867</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.000999366864182</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>6.117791101730956</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.881780644599824</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.935272888161495</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.325270208121164</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>1.69844347157215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +879,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>112,51%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-16,11%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>110,32%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.02693307753980079</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8359339619362447</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3453325912453578</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>1.890544030615258</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.006587092358720099</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2801888699940881</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.07007973027341809</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.3207462854196045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 4,43</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 1,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 9,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 419,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-74,41; 117,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 360,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.162099218688329</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.652321338058029</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.280687323564717</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.593337031317074</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6320891066834327</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4221566487643137</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4615209184791347</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.3384771819075296</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.988568005243185</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.270969136578275</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.069482631981665</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>5.324590210255202</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.42160374351408</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.899451644364715</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.949853866528548</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.442487033408737</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,95</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>75,65%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>54,97%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>54,91%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>80,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 3,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 2,62</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 3,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 6,17</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 176,57</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 129,65</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 128,08</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>29,4; 160,6</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.749157825257624</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.907343639855506</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.899693869721337</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>3.569624968019146</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6446878840954093</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7703427372296296</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.553455364980751</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.7125535696048603</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3306728248249092</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3730517821168681</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3399076534619976</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>0.9363067693887898</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1277895306630383</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.09554583446922971</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.05642530128265059</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.1339453814659627</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.837456563855368</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.565332351851114</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.57897353320854</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>6.179575014344188</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.082982281196346</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.009590325930344</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.302507761818898</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.66147257136637</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
